--- a/data/aggregasi_matriks.xlsx
+++ b/data/aggregasi_matriks.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Documents\Kategorisasi\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF64D259-F0DC-449B-9CE4-062067161AD4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="-15" windowWidth="10290" windowHeight="8115"/>
+    <workbookView xWindow="10245" yWindow="-15" windowWidth="10290" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggregasi_matriks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="114">
   <si>
     <t>kategori</t>
   </si>
@@ -361,8 +367,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +895,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -935,7 +949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,9 +981,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1001,6 +1033,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1176,16 +1226,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:115">
+    <row r="1" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1532,81 +1582,81 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:115">
+    <row r="2" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <f>B9/$B17</f>
-        <v>0.1163895486935867</v>
+        <v>9.2105263157894732E-2</v>
       </c>
       <c r="C2">
         <f>C9/$B17</f>
-        <v>1.66270783847981E-2</v>
+        <v>1.780185758513932E-2</v>
       </c>
       <c r="D2">
         <f>D9/$B17</f>
-        <v>5.3444180522565318E-2</v>
+        <v>4.2569659442724457E-2</v>
       </c>
       <c r="E2">
         <f>E9/$B17</f>
-        <v>3.4441805225653203E-2</v>
+        <v>3.3281733746130034E-2</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:S2" si="0">F9/$B17</f>
-        <v>6.2945368171021379E-2</v>
+        <v>6.1919504643962849E-2</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>1.0688836104513063E-2</v>
+        <v>8.5139318885448911E-3</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>8.907363420427554E-2</v>
+        <v>9.9071207430340563E-2</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>3.800475059382423E-2</v>
+        <v>3.8699690402476783E-2</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>1.7814726840855107E-2</v>
+        <v>1.780185758513932E-2</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>4.7505938242280287E-3</v>
+        <v>4.6439628482972135E-3</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>1.5439429928741092E-2</v>
+        <v>2.089783281733746E-2</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0.15320665083135393</v>
+        <v>0.15015479876160992</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>5.9382422802850355E-3</v>
+        <v>4.6439628482972135E-3</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0.22684085510688837</v>
+        <v>0.25773993808049533</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>3.5629453681710215E-3</v>
+        <v>2.3219814241486067E-3</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>2.4940617577197149E-2</v>
+        <v>2.4767801857585141E-2</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>2.6128266033254157E-2</v>
+        <v>2.1671826625386997E-2</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>9.9762470308788598E-2</v>
+        <v>0.10139318885448917</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1897,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:115">
+    <row r="3" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1957,11 +2007,11 @@
       </c>
       <c r="T3">
         <f>T10/$U15</f>
-        <v>0.1292352371732817</v>
+        <v>0.12407282535401214</v>
       </c>
       <c r="U3">
         <f>U10/$U15</f>
-        <v>3.0493707647628269E-2</v>
+        <v>3.0343897505057317E-2</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:BF3" si="1">V10/$U15</f>
@@ -1969,15 +2019,15 @@
       </c>
       <c r="W3">
         <f t="shared" si="1"/>
-        <v>2.7105517909002903E-2</v>
+        <v>2.2926500337154418E-2</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>1.016456921587609E-2</v>
+        <v>9.440323668240054E-3</v>
       </c>
       <c r="Y3">
         <f t="shared" si="1"/>
-        <v>2.9041626331074541E-3</v>
+        <v>2.3600809170600135E-3</v>
       </c>
       <c r="Z3">
         <f t="shared" si="1"/>
@@ -1985,63 +2035,63 @@
       </c>
       <c r="AA3">
         <f t="shared" si="1"/>
-        <v>4.9854791868344628E-2</v>
+        <v>4.8213081591368848E-2</v>
       </c>
       <c r="AB3">
         <f t="shared" si="1"/>
-        <v>1.4036786060019362E-2</v>
+        <v>1.3823331085637222E-2</v>
       </c>
       <c r="AC3">
         <f t="shared" si="1"/>
-        <v>4.3562439496611814E-3</v>
+        <v>3.3715441672285905E-3</v>
       </c>
       <c r="AD3">
         <f t="shared" si="1"/>
-        <v>1.9361084220716359E-2</v>
+        <v>2.124072825354012E-2</v>
       </c>
       <c r="AE3">
         <f t="shared" si="1"/>
-        <v>1.016456921587609E-2</v>
+        <v>1.2474713418745786E-2</v>
       </c>
       <c r="AF3">
         <f t="shared" si="1"/>
-        <v>4.8402710551790898E-3</v>
+        <v>5.394470667565745E-3</v>
       </c>
       <c r="AG3">
         <f t="shared" si="1"/>
-        <v>1.1132623426911906E-2</v>
+        <v>8.091706001348618E-3</v>
       </c>
       <c r="AH3">
         <f t="shared" si="1"/>
-        <v>4.8402710551790902E-4</v>
+        <v>3.3715441672285906E-4</v>
       </c>
       <c r="AI3">
         <f t="shared" si="1"/>
-        <v>6.1471442400774443E-2</v>
+        <v>6.9116655428186111E-2</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="1"/>
-        <v>9.7773475314617622E-2</v>
+        <v>0.12238705327039784</v>
       </c>
       <c r="AK3">
         <f t="shared" si="1"/>
-        <v>3.1945788964181994E-2</v>
+        <v>2.6298044504383007E-2</v>
       </c>
       <c r="AL3">
         <f t="shared" si="1"/>
-        <v>8.6156824782187807E-2</v>
+        <v>0.10552933243425489</v>
       </c>
       <c r="AM3">
         <f t="shared" si="1"/>
-        <v>0.12294288480154889</v>
+        <v>0.13688469318948079</v>
       </c>
       <c r="AN3">
         <f t="shared" si="1"/>
-        <v>2.3233301064859633E-2</v>
+        <v>1.6520566419420093E-2</v>
       </c>
       <c r="AO3">
         <f t="shared" si="1"/>
-        <v>3.1945788964181994E-2</v>
+        <v>3.6749831422791639E-2</v>
       </c>
       <c r="AP3">
         <f t="shared" si="1"/>
@@ -2049,51 +2099,51 @@
       </c>
       <c r="AQ3">
         <f t="shared" si="1"/>
-        <v>2.3717328170377541E-2</v>
+        <v>2.7646662171274445E-2</v>
       </c>
       <c r="AR3">
         <f t="shared" si="1"/>
-        <v>4.8402710551790902E-4</v>
+        <v>3.3715441672285906E-4</v>
       </c>
       <c r="AS3">
         <f t="shared" si="1"/>
-        <v>4.3562439496611814E-3</v>
+        <v>4.3830074173971676E-3</v>
       </c>
       <c r="AT3">
         <f t="shared" si="1"/>
-        <v>6.4859632139399812E-2</v>
+        <v>7.316250842886042E-2</v>
       </c>
       <c r="AU3">
         <f t="shared" si="1"/>
-        <v>2.4201355275895449E-3</v>
+        <v>2.3600809170600135E-3</v>
       </c>
       <c r="AV3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.7430883344571813E-4</v>
       </c>
       <c r="AW3">
         <f t="shared" si="1"/>
-        <v>1.9361084220716359E-2</v>
+        <v>2.124072825354012E-2</v>
       </c>
       <c r="AX3">
         <f t="shared" si="1"/>
-        <v>2.6621490803484995E-2</v>
+        <v>2.7646662171274445E-2</v>
       </c>
       <c r="AY3">
         <f t="shared" si="1"/>
-        <v>1.9361084220716361E-3</v>
+        <v>1.3486176668914363E-3</v>
       </c>
       <c r="AZ3">
         <f t="shared" si="1"/>
-        <v>2.0813165537270088E-2</v>
+        <v>1.8880647336480108E-2</v>
       </c>
       <c r="BA3">
         <f t="shared" si="1"/>
-        <v>9.6805421103581804E-4</v>
+        <v>6.7430883344571813E-4</v>
       </c>
       <c r="BB3">
         <f t="shared" si="1"/>
-        <v>1.4520813165537271E-3</v>
+        <v>4.045853000674309E-3</v>
       </c>
       <c r="BC3">
         <f t="shared" si="1"/>
@@ -2101,15 +2151,15 @@
       </c>
       <c r="BD3">
         <f t="shared" si="1"/>
-        <v>4.8402710551790902E-4</v>
+        <v>6.7430883344571813E-4</v>
       </c>
       <c r="BE3">
         <f t="shared" si="1"/>
-        <v>1.4520813165537271E-3</v>
+        <v>1.0114632501685772E-3</v>
       </c>
       <c r="BF3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3715441672285906E-4</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -2283,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:115">
+    <row r="4" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -2460,43 +2510,43 @@
       </c>
       <c r="BG4">
         <f>BG11/$BH15</f>
-        <v>0.73094425483503978</v>
+        <v>0.73570869224745494</v>
       </c>
       <c r="BH4">
         <f>BH11/$BH15</f>
-        <v>3.6405005688282137E-2</v>
+        <v>3.719655442443226E-2</v>
       </c>
       <c r="BI4">
         <f t="shared" ref="BI4:BZ4" si="2">BI11/$BH15</f>
-        <v>6.2571103526734926E-3</v>
+        <v>4.306969459671104E-3</v>
       </c>
       <c r="BJ4">
         <f t="shared" si="2"/>
-        <v>1.1376564277588168E-2</v>
+        <v>9.0054815974941263E-3</v>
       </c>
       <c r="BK4">
         <f t="shared" si="2"/>
-        <v>1.8202502844141068E-2</v>
+        <v>1.9185591229444011E-2</v>
       </c>
       <c r="BL4">
         <f t="shared" si="2"/>
-        <v>5.5745164960182024E-2</v>
+        <v>5.364134690681284E-2</v>
       </c>
       <c r="BM4">
         <f t="shared" si="2"/>
-        <v>1.0238907849829351E-2</v>
+        <v>8.6139389193422081E-3</v>
       </c>
       <c r="BN4">
         <f t="shared" si="2"/>
-        <v>3.9817974971558586E-3</v>
+        <v>4.306969459671104E-3</v>
       </c>
       <c r="BO4">
         <f t="shared" si="2"/>
-        <v>7.1672354948805458E-2</v>
+        <v>6.9303054032889583E-2</v>
       </c>
       <c r="BP4">
         <f t="shared" si="2"/>
-        <v>3.4129692832764505E-3</v>
+        <v>3.1323414252153485E-3</v>
       </c>
       <c r="BQ4">
         <f t="shared" si="2"/>
@@ -2504,35 +2554,35 @@
       </c>
       <c r="BR4">
         <f t="shared" si="2"/>
-        <v>5.6882821387940839E-4</v>
+        <v>3.9154267815191856E-4</v>
       </c>
       <c r="BS4">
         <f t="shared" si="2"/>
-        <v>5.6882821387940839E-4</v>
+        <v>3.9154267815191856E-4</v>
       </c>
       <c r="BT4">
         <f t="shared" si="2"/>
-        <v>2.3890784982935155E-2</v>
+        <v>3.0148786217697728E-2</v>
       </c>
       <c r="BU4">
         <f t="shared" si="2"/>
-        <v>3.9817974971558586E-3</v>
+        <v>3.9154267815191858E-3</v>
       </c>
       <c r="BV4">
         <f t="shared" si="2"/>
-        <v>1.0807736063708761E-2</v>
+        <v>1.0571652310101801E-2</v>
       </c>
       <c r="BW4">
         <f t="shared" si="2"/>
-        <v>6.8259385665529011E-3</v>
+        <v>4.6985121378230231E-3</v>
       </c>
       <c r="BX4">
         <f t="shared" si="2"/>
-        <v>2.2753128555176336E-3</v>
+        <v>2.3492560689115116E-3</v>
       </c>
       <c r="BY4">
         <f t="shared" si="2"/>
-        <v>2.844141069397042E-3</v>
+        <v>3.1323414252153485E-3</v>
       </c>
       <c r="BZ4">
         <f t="shared" si="2"/>
@@ -2650,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:115">
+    <row r="5" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2887,43 +2937,43 @@
       </c>
       <c r="CA5">
         <f>CA12/$CB15</f>
-        <v>0.14341590612777053</v>
+        <v>0.13184931506849315</v>
       </c>
       <c r="CB5">
         <f>CB12/$CB15</f>
-        <v>0.16427640156453716</v>
+        <v>0.18065068493150685</v>
       </c>
       <c r="CC5">
         <f t="shared" ref="CC5:CJ5" si="3">CC12/$CB15</f>
-        <v>0.43937418513689702</v>
+        <v>0.4452054794520548</v>
       </c>
       <c r="CD5">
         <f t="shared" si="3"/>
-        <v>5.736636245110821E-2</v>
+        <v>4.7945205479452052E-2</v>
       </c>
       <c r="CE5">
         <f t="shared" si="3"/>
-        <v>3.6505867014341588E-2</v>
+        <v>2.9109589041095889E-2</v>
       </c>
       <c r="CF5">
         <f t="shared" si="3"/>
-        <v>6.9100391134289438E-2</v>
+        <v>5.8219178082191778E-2</v>
       </c>
       <c r="CG5">
         <f t="shared" si="3"/>
-        <v>6.9100391134289438E-2</v>
+        <v>6.6780821917808222E-2</v>
       </c>
       <c r="CH5">
         <f t="shared" si="3"/>
-        <v>2.6075619295958278E-3</v>
+        <v>2.5684931506849314E-3</v>
       </c>
       <c r="CI5">
         <f t="shared" si="3"/>
-        <v>5.2151238591916557E-3</v>
+        <v>1.1986301369863013E-2</v>
       </c>
       <c r="CJ5">
         <f t="shared" si="3"/>
-        <v>1.303780964797914E-2</v>
+        <v>2.482876712328767E-2</v>
       </c>
       <c r="CK5">
         <v>0</v>
@@ -3007,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:115">
+    <row r="6" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -3274,39 +3324,39 @@
       </c>
       <c r="CK6">
         <f>CK13/$CL15</f>
-        <v>0.34591679506933742</v>
+        <v>0.38481272447408926</v>
       </c>
       <c r="CL6">
         <f>CL13/$CL15</f>
-        <v>0.33513097072419107</v>
+        <v>0.3258081067213956</v>
       </c>
       <c r="CM6">
         <f t="shared" ref="CM6:DK6" si="4">CM13/$CL15</f>
-        <v>1.6949152542372881E-2</v>
+        <v>1.3853258081067214E-2</v>
       </c>
       <c r="CN6">
         <f t="shared" si="4"/>
-        <v>6.1633281972265025E-3</v>
+        <v>5.1308363263211903E-3</v>
       </c>
       <c r="CO6">
         <f t="shared" si="4"/>
-        <v>1.1556240369799691E-2</v>
+        <v>1.07747562852745E-2</v>
       </c>
       <c r="CP6">
         <f t="shared" si="4"/>
-        <v>7.7041602465331279E-3</v>
+        <v>5.643919958953309E-3</v>
       </c>
       <c r="CQ6">
         <f t="shared" si="4"/>
-        <v>7.7041602465331282E-4</v>
+        <v>5.1308363263211901E-4</v>
       </c>
       <c r="CR6">
         <f t="shared" si="4"/>
-        <v>2.7734976887519261E-2</v>
+        <v>2.3601847101077475E-2</v>
       </c>
       <c r="CS6">
         <f t="shared" si="4"/>
-        <v>2.3112480739599386E-3</v>
+        <v>2.5654181631605951E-3</v>
       </c>
       <c r="CT6">
         <f t="shared" si="4"/>
@@ -3314,11 +3364,11 @@
       </c>
       <c r="CU6">
         <f t="shared" si="4"/>
-        <v>2.3112480739599386E-3</v>
+        <v>2.052334530528476E-3</v>
       </c>
       <c r="CV6">
         <f t="shared" si="4"/>
-        <v>4.0832049306625574E-2</v>
+        <v>4.0020523345305287E-2</v>
       </c>
       <c r="CW6">
         <f t="shared" si="4"/>
@@ -3326,7 +3376,7 @@
       </c>
       <c r="CX6">
         <f t="shared" si="4"/>
-        <v>1.386748844375963E-2</v>
+        <v>1.3853258081067214E-2</v>
       </c>
       <c r="CY6">
         <f t="shared" si="4"/>
@@ -3334,54 +3384,54 @@
       </c>
       <c r="CZ6">
         <f t="shared" si="4"/>
-        <v>2.5423728813559324E-2</v>
+        <v>2.0523345305284761E-2</v>
       </c>
       <c r="DA6">
         <f t="shared" si="4"/>
-        <v>3.0816640986132513E-3</v>
+        <v>2.052334530528476E-3</v>
       </c>
       <c r="DB6">
         <f t="shared" si="4"/>
-        <v>3.0816640986132513E-3</v>
+        <v>2.052334530528476E-3</v>
       </c>
       <c r="DC6">
         <f t="shared" si="4"/>
-        <v>4.3913713405238829E-2</v>
+        <v>3.591585428424833E-2</v>
       </c>
       <c r="DD6">
         <f t="shared" si="4"/>
-        <v>7.7041602465331282E-4</v>
+        <v>5.1308363263211901E-4</v>
       </c>
       <c r="DE6">
         <f t="shared" si="4"/>
-        <v>1.5408320493066256E-3</v>
+        <v>1.026167265264238E-3</v>
       </c>
       <c r="DF6">
         <f t="shared" si="4"/>
-        <v>6.1633281972265025E-3</v>
+        <v>7.6962544894817854E-3</v>
       </c>
       <c r="DG6">
         <f t="shared" si="4"/>
-        <v>2.9275808936825885E-2</v>
+        <v>3.0785017957927142E-2</v>
       </c>
       <c r="DH6">
         <f t="shared" si="4"/>
-        <v>5.1617873651771957E-2</v>
+        <v>4.2072857875833758E-2</v>
       </c>
       <c r="DI6">
         <f t="shared" si="4"/>
-        <v>1.386748844375963E-2</v>
+        <v>1.8984094407388404E-2</v>
       </c>
       <c r="DJ6">
         <f t="shared" si="4"/>
-        <v>2.3112480739599386E-3</v>
+        <v>3.0785017957927143E-3</v>
       </c>
       <c r="DK6">
         <f t="shared" si="4"/>
-        <v>7.7041602465331279E-3</v>
+        <v>6.6700872242175472E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:115">
+    <row r="8" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3728,63 +3778,63 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:115">
+    <row r="9" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F9">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="I9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="P9">
         <v>3</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="R9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S9">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -4075,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:115">
+    <row r="10" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4134,121 +4184,121 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="U10">
+        <v>90</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>68</v>
+      </c>
+      <c r="X10">
+        <v>28</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>143</v>
+      </c>
+      <c r="AB10">
+        <v>41</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AD10">
         <v>63</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>56</v>
-      </c>
-      <c r="X10">
-        <v>21</v>
-      </c>
-      <c r="Y10">
-        <v>6</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>103</v>
-      </c>
-      <c r="AB10">
-        <v>29</v>
-      </c>
-      <c r="AC10">
-        <v>9</v>
-      </c>
-      <c r="AD10">
-        <v>40</v>
-      </c>
       <c r="AE10">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AF10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AG10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH10">
         <v>1</v>
       </c>
       <c r="AI10">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="AJ10">
-        <v>202</v>
+        <v>363</v>
       </c>
       <c r="AK10">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AL10">
-        <v>178</v>
+        <v>313</v>
       </c>
       <c r="AM10">
-        <v>254</v>
+        <v>406</v>
       </c>
       <c r="AN10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AO10">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="AP10">
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AR10">
         <v>1</v>
       </c>
       <c r="AS10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AT10">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="AU10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW10">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AX10">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="AY10">
         <v>4</v>
       </c>
       <c r="AZ10">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="BA10">
         <v>2</v>
       </c>
       <c r="BB10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BC10">
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE10">
         <v>3</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -4422,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:115">
+    <row r="11" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -4598,34 +4648,34 @@
         <v>0</v>
       </c>
       <c r="BG11">
-        <v>1285</v>
+        <v>1879</v>
       </c>
       <c r="BH11">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="BI11">
         <v>11</v>
       </c>
       <c r="BJ11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BK11">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="BL11">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="BM11">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BN11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BO11">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="BP11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ11">
         <v>0</v>
@@ -4637,22 +4687,22 @@
         <v>1</v>
       </c>
       <c r="BT11">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="BU11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BV11">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="BW11">
         <v>12</v>
       </c>
       <c r="BX11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BY11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BZ11">
         <v>0</v>
@@ -4769,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:115">
+    <row r="12" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -5005,34 +5055,34 @@
         <v>0</v>
       </c>
       <c r="CA12">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="CB12">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="CC12">
-        <v>337</v>
+        <v>520</v>
       </c>
       <c r="CD12">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="CE12">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="CF12">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="CG12">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="CH12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CI12">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="CJ12">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="CK12">
         <v>0</v>
@@ -5116,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:115">
+    <row r="13" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -5382,52 +5432,52 @@
         <v>0</v>
       </c>
       <c r="CK13">
-        <v>449</v>
+        <v>750</v>
       </c>
       <c r="CL13">
-        <v>435</v>
+        <v>635</v>
       </c>
       <c r="CM13">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CN13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CO13">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="CP13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CQ13">
         <v>1</v>
       </c>
       <c r="CR13">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="CS13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CT13">
         <v>0</v>
       </c>
       <c r="CU13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV13">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="CW13">
         <v>0</v>
       </c>
       <c r="CX13">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="CY13">
         <v>0</v>
       </c>
       <c r="CZ13">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="DA13">
         <v>4</v>
@@ -5436,7 +5486,7 @@
         <v>4</v>
       </c>
       <c r="DC13">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="DD13">
         <v>1</v>
@@ -5445,75 +5495,72 @@
         <v>2</v>
       </c>
       <c r="DF13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="DG13">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="DH13">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="DI13">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="DJ13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DK13">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:115">
-      <c r="T15" t="s">
-        <v>15</v>
-      </c>
+    <row r="15" spans="1:115" x14ac:dyDescent="0.25">
       <c r="U15">
-        <v>2066</v>
+        <v>2966</v>
       </c>
       <c r="BG15" t="s">
         <v>41</v>
       </c>
       <c r="BH15">
-        <v>1758</v>
+        <v>2554</v>
       </c>
       <c r="CA15" t="s">
         <v>54</v>
       </c>
       <c r="CB15">
-        <v>767</v>
+        <v>1168</v>
       </c>
       <c r="CK15" t="s">
         <v>67</v>
       </c>
       <c r="CL15">
-        <v>1298</v>
+        <v>1949</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>113</v>
       </c>
       <c r="B17">
-        <v>842</v>
+        <v>1292</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>2066</v>
+        <v>2966</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19">
-        <v>1758</v>
+        <v>2554</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -5521,7 +5568,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
